--- a/data_year/zb/文化/博物馆.xlsx
+++ b/data_year/zb/文化/博物馆.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,556 +483,362 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10091</v>
+      </c>
       <c r="C2" t="n">
-        <v>34199</v>
+        <v>57431</v>
       </c>
       <c r="D2" t="n">
-        <v>8540</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>40679.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16613</v>
+      </c>
       <c r="F2" t="n">
-        <v>9813923</v>
+        <v>17552482</v>
       </c>
       <c r="G2" t="n">
-        <v>1392</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>2435</v>
+      </c>
+      <c r="H2" t="n">
+        <v>539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20900</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33871</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9867</v>
+      </c>
       <c r="C3" t="n">
-        <v>35092</v>
+        <v>62181</v>
       </c>
       <c r="D3" t="n">
-        <v>7955</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>47050.68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7054</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19023423</v>
+      </c>
       <c r="G3" t="n">
-        <v>1461</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>2650</v>
+      </c>
+      <c r="H3" t="n">
+        <v>366</v>
+      </c>
+      <c r="I3" t="n">
+        <v>434695</v>
+      </c>
+      <c r="J3" t="n">
+        <v>79496</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11885</v>
+      </c>
       <c r="C4" t="n">
-        <v>35833</v>
+        <v>71748</v>
       </c>
       <c r="D4" t="n">
-        <v>7980</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>56401.076</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8230</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23180726</v>
+      </c>
       <c r="G4" t="n">
-        <v>1511</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>3069</v>
+      </c>
+      <c r="H4" t="n">
+        <v>325</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47314</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9172</v>
+      </c>
       <c r="C5" t="n">
-        <v>34891</v>
+        <v>79075</v>
       </c>
       <c r="D5" t="n">
-        <v>6206</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>63776</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7650</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27191601</v>
+      </c>
       <c r="G5" t="n">
-        <v>1515</v>
+        <v>3473</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>113070</v>
+      </c>
+      <c r="J5" t="n">
+        <v>304839</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>39266</v>
+        <v>83970</v>
       </c>
       <c r="D6" t="n">
-        <v>9736</v>
+        <v>71773.80899999999</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>12856434</v>
+        <v>29299673</v>
       </c>
       <c r="G6" t="n">
-        <v>1548</v>
+        <v>3658</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>186236</v>
+      </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>38603</v>
+        <v>89133</v>
       </c>
       <c r="D7" t="n">
-        <v>11819</v>
+        <v>78111.68700000001</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>16199377</v>
+        <v>30441422</v>
       </c>
       <c r="G7" t="n">
-        <v>1581</v>
+        <v>3852</v>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>50137</v>
+      </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>40818</v>
+        <v>93431</v>
       </c>
       <c r="D8" t="n">
-        <v>12032.4</v>
+        <v>85061.03</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>13024192</v>
+        <v>33293561</v>
       </c>
       <c r="G8" t="n">
-        <v>1617</v>
+        <v>4109</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>87483</v>
+      </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>42636</v>
+        <v>105079</v>
       </c>
       <c r="D9" t="n">
-        <v>25625</v>
+        <v>97172.149</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>13760448</v>
+        <v>36623080</v>
       </c>
       <c r="G9" t="n">
-        <v>1722</v>
+        <v>4721</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>33780</v>
+      </c>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>51587</v>
+        <v>107506</v>
       </c>
       <c r="D10" t="n">
-        <v>28328</v>
+        <v>104403.582</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>14554158</v>
+        <v>37540740</v>
       </c>
       <c r="G10" t="n">
-        <v>1893</v>
+        <v>4918</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>41046</v>
+        <v>188377</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>59919</v>
+        <v>107993</v>
       </c>
       <c r="D11" t="n">
-        <v>32715.6</v>
+        <v>112225.159</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>15711150</v>
+        <v>39548334</v>
       </c>
       <c r="G11" t="n">
-        <v>2252</v>
+        <v>5132</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>44211</v>
+        <v>70779</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10091</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>57431</v>
+        <v>118913</v>
       </c>
       <c r="D12" t="n">
-        <v>40679.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16613</v>
-      </c>
+        <v>52652.35</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>17552482</v>
+        <v>43190898</v>
       </c>
       <c r="G12" t="n">
-        <v>2435</v>
-      </c>
-      <c r="H12" t="n">
-        <v>539</v>
-      </c>
+        <v>5452</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>20900</v>
-      </c>
-      <c r="J12" t="n">
-        <v>33871</v>
-      </c>
+        <v>162399</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9867</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>62181</v>
+        <v>125704</v>
       </c>
       <c r="D13" t="n">
-        <v>47050.68</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7054</v>
-      </c>
+        <v>74850.45</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>19023423</v>
+        <v>46648282</v>
       </c>
       <c r="G13" t="n">
-        <v>2650</v>
-      </c>
-      <c r="H13" t="n">
-        <v>366</v>
-      </c>
+        <v>5772</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>434695</v>
-      </c>
-      <c r="J13" t="n">
-        <v>79496</v>
-      </c>
+        <v>81461</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11885</v>
-      </c>
-      <c r="C14" t="n">
-        <v>71748</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56401.076</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8230</v>
-      </c>
-      <c r="F14" t="n">
-        <v>23180726</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>3069</v>
-      </c>
-      <c r="H14" t="n">
-        <v>325</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47314</v>
-      </c>
-      <c r="J14" t="n">
-        <v>39120</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9172</v>
-      </c>
-      <c r="C15" t="n">
-        <v>79075</v>
-      </c>
-      <c r="D15" t="n">
-        <v>63776</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7650</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27191601</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3473</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>113070</v>
-      </c>
-      <c r="J15" t="n">
-        <v>304839</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>83970</v>
-      </c>
-      <c r="D16" t="n">
-        <v>71773.80899999999</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>29299673</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3658</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>186236</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>89133</v>
-      </c>
-      <c r="D17" t="n">
-        <v>78111.68700000001</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>30441422</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3852</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>50137</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>93431</v>
-      </c>
-      <c r="D18" t="n">
-        <v>85061.03</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>33293561</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4109</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>87483</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>105079</v>
-      </c>
-      <c r="D19" t="n">
-        <v>97172.149</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>36623080</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4721</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>33780</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>107506</v>
-      </c>
-      <c r="D20" t="n">
-        <v>104403.582</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>37540740</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4918</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>188377</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>107993</v>
-      </c>
-      <c r="D21" t="n">
-        <v>112225.159</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>39548334</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5132</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>70779</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>118913</v>
-      </c>
-      <c r="D22" t="n">
-        <v>52652.35</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>43190898</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5452</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>162399</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>6091</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
